--- a/doc/学习记录.xlsx
+++ b/doc/学习记录.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EEC48C-CA7E-4C26-91A7-9A22C7E8B16A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>日期时间</t>
   </si>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>尝试数据库的远程连接</t>
+  </si>
+  <si>
+    <t>2019/5/15 20:30--22:30</t>
+  </si>
+  <si>
+    <t>今天写了三个类，Road，RoadEntity，RoadManageEntity</t>
   </si>
   <si>
     <r>
@@ -271,18 +271,22 @@
   </si>
   <si>
     <t>2019/5/13 17:00--21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 注册，request,response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,21 +295,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,9 +641,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -336,17 +906,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -604,26 +1218,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -639,7 +1253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -648,26 +1262,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -683,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -692,26 +1307,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -728,26 +1344,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3796296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -764,26 +1381,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -800,26 +1418,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="45.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.3796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -835,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -843,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -852,26 +1471,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -887,7 +1507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -895,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,27 +1523,36 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -939,265 +1568,265 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/学习记录.xlsx
+++ b/doc/学习记录.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EEC48C-CA7E-4C26-91A7-9A22C7E8B16A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9372" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -271,18 +265,22 @@
   </si>
   <si>
     <t>2019/5/13 17:00--21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 注册，request,response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,21 +289,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,9 +635,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -336,17 +900,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -604,26 +1212,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -639,7 +1247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -648,26 +1256,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -683,7 +1292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -692,26 +1301,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -728,26 +1338,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3796296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -764,26 +1375,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -800,26 +1412,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="45.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.3796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -835,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -843,7 +1456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -852,26 +1465,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -887,7 +1501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -895,7 +1509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,26 +1518,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -939,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -947,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -955,7 +1570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -963,7 +1578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -971,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -979,7 +1594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -987,7 +1602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -995,7 +1610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1003,7 +1618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1011,7 +1626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +1642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1035,7 +1650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1043,7 +1658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1051,7 +1666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1059,7 +1674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1067,7 +1682,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1075,7 +1690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1083,7 +1698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1091,7 +1706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1099,7 +1714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1107,7 +1722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1115,7 +1730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1123,7 +1738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -1131,7 +1746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
@@ -1139,7 +1754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1147,7 +1762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -1155,7 +1770,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -1163,7 +1778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -1171,7 +1786,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -1179,7 +1794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1187,7 +1802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -1196,8 +1811,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/学习记录.xlsx
+++ b/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>日期时间</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>今天写了三个类，Road，RoadEntity，RoadManageEntity</t>
+  </si>
+  <si>
+    <t>2019/5/16 16:30--21:25</t>
+  </si>
+  <si>
+    <t>今天删除了Road，用baseDomain作为父类，并添加了一些注释</t>
   </si>
   <si>
     <r>
@@ -296,7 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +310,121 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,122 +439,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,66 +454,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,120 +635,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,26 +648,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,8 +701,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,37 +722,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,145 +753,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1479,16 +1485,16 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.8888888888889" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1529,6 +1535,14 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1542,8 +1556,8 @@
   <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B34 B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1570,7 +1584,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -1578,250 +1592,250 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/doc/学习记录.xlsx
+++ b/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>日期时间</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>今天删除了Road，用baseDomain作为父类，并添加了一些注释</t>
+  </si>
+  <si>
+    <t>2019/5/17 20:30--22:30</t>
+  </si>
+  <si>
+    <t>今天完善了一下实例</t>
   </si>
   <si>
     <r>
@@ -287,8 +293,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -302,14 +308,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,6 +405,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,41 +435,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,67 +450,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -454,31 +460,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +580,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,133 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,13 +663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,30 +694,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -718,6 +704,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,8 +746,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,133 +771,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,13 +1491,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="53.8888888888889" style="1" customWidth="1"/>
@@ -1543,6 +1549,14 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1598,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -1592,250 +1606,250 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/doc/学习记录.xlsx
+++ b/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>日期时间</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>今天完善了一下实例</t>
+  </si>
+  <si>
+    <t>2019/5/18 14:30--18:30</t>
+  </si>
+  <si>
+    <t>发现自己的类写错了，修改，实现dao，domain</t>
   </si>
   <si>
     <r>
@@ -293,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -321,6 +327,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -328,128 +456,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -460,187 +466,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,6 +657,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -664,16 +681,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,37 +710,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +742,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -759,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,130 +777,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1491,13 +1497,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="53.8888888888889" style="1" customWidth="1"/>
@@ -1557,6 +1563,14 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1612,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -1606,250 +1620,250 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
